--- a/Mineral/Data/Data/均质.xlsx
+++ b/Mineral/Data/Data/均质.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="47">
   <si>
     <t>矿物中文名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -112,6 +112,76 @@
   </si>
   <si>
     <t>0.95°</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>反射率为Ⅰ级，视觉反射率为88.8</t>
+  </si>
+  <si>
+    <t>0.96°</t>
+  </si>
+  <si>
+    <t>反射率为Ⅰ级，视觉反射率为88.9</t>
+  </si>
+  <si>
+    <t>0.97°</t>
+  </si>
+  <si>
+    <t>反射率为Ⅰ级，视觉反射率为88.10</t>
+  </si>
+  <si>
+    <t>0.98°</t>
+  </si>
+  <si>
+    <t>反射率为Ⅰ级，视觉反射率为88.11</t>
+  </si>
+  <si>
+    <t>0.99°</t>
+  </si>
+  <si>
+    <t>反射率为Ⅰ级，视觉反射率为88.12</t>
+  </si>
+  <si>
+    <t>0.100°</t>
+  </si>
+  <si>
+    <t>反射率为Ⅰ级，视觉反射率为88.13</t>
+  </si>
+  <si>
+    <t>0.101°</t>
+  </si>
+  <si>
+    <t>反射率为Ⅰ级，视觉反射率为88.14</t>
+  </si>
+  <si>
+    <t>0.102°</t>
+  </si>
+  <si>
+    <t>而我却二</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自而我却二群然银</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自然人人网若银</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自然前期银</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自然银3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自然银2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自然银1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -467,10 +537,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M2"/>
+  <dimension ref="A1:M9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -578,6 +648,293 @@
         <v>20</v>
       </c>
     </row>
+    <row r="3" spans="1:13" ht="72">
+      <c r="A3" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" ht="72">
+      <c r="A4" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="M4" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" ht="72">
+      <c r="A5" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="M5" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" ht="72">
+      <c r="A6" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="M6" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" ht="72">
+      <c r="A7" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="M7" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" ht="72">
+      <c r="A8" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="L8" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="M8" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" ht="72">
+      <c r="A9" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="K9" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="L9" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="M9" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Mineral/Data/Data/均质.xlsx
+++ b/Mineral/Data/Data/均质.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="96" windowWidth="15480" windowHeight="11640"/>
+    <workbookView xWindow="0" yWindow="90" windowWidth="15480" windowHeight="11640"/>
   </bookViews>
   <sheets>
     <sheet name="均质矿物" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>矿物中文名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -59,22 +59,10 @@
     <t>矿物成因产状形态特征及伴生矿物</t>
   </si>
   <si>
-    <t>自然银</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>siver</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Ag</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>等轴晶系</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>均质性，偏光十字图四象限微蓝或无色</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -111,85 +99,22 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>0.95°</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>反射率为Ⅰ级，视觉反射率为88.8</t>
-  </si>
-  <si>
-    <t>0.96°</t>
-  </si>
-  <si>
-    <t>反射率为Ⅰ级，视觉反射率为88.9</t>
-  </si>
-  <si>
-    <t>0.97°</t>
-  </si>
-  <si>
-    <t>反射率为Ⅰ级，视觉反射率为88.10</t>
-  </si>
-  <si>
-    <t>0.98°</t>
-  </si>
-  <si>
-    <t>反射率为Ⅰ级，视觉反射率为88.11</t>
-  </si>
-  <si>
-    <t>0.99°</t>
-  </si>
-  <si>
-    <t>反射率为Ⅰ级，视觉反射率为88.12</t>
-  </si>
-  <si>
-    <t>0.100°</t>
-  </si>
-  <si>
-    <t>反射率为Ⅰ级，视觉反射率为88.13</t>
-  </si>
-  <si>
-    <t>0.101°</t>
-  </si>
-  <si>
-    <t>反射率为Ⅰ级，视觉反射率为88.14</t>
-  </si>
-  <si>
-    <t>0.102°</t>
-  </si>
-  <si>
-    <t>而我却二</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>自而我却二群然银</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>自然人人网若银</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>自然前期银</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>自然银3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>自然银2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>自然银1</t>
+    <t>自然银33</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>15°</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="1">
+    <numFmt numFmtId="176" formatCode="0_ "/>
+  </numFmts>
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -228,7 +153,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -236,6 +161,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -247,6 +178,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -295,7 +229,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -327,9 +261,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -361,6 +296,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -536,37 +472,37 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:M2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="17.77734375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="14.44140625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="11.6640625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="11.33203125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="22.77734375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="13.88671875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="17.75" style="1" customWidth="1"/>
+    <col min="2" max="2" width="14.5" style="1" customWidth="1"/>
+    <col min="3" max="3" width="11.625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="11.375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="22.75" style="1" customWidth="1"/>
+    <col min="6" max="6" width="13.875" style="1" customWidth="1"/>
     <col min="7" max="7" width="9" style="1"/>
-    <col min="8" max="8" width="19.21875" style="1" customWidth="1"/>
-    <col min="9" max="9" width="25.44140625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="19.77734375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="14.21875" style="1" customWidth="1"/>
-    <col min="12" max="12" width="34.88671875" style="1" customWidth="1"/>
-    <col min="13" max="13" width="18.6640625" style="1" customWidth="1"/>
-    <col min="14" max="14" width="24.6640625" style="1" customWidth="1"/>
-    <col min="15" max="15" width="22.33203125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="19.25" style="1" customWidth="1"/>
+    <col min="9" max="9" width="25.5" style="3" customWidth="1"/>
+    <col min="10" max="10" width="19.75" style="1" customWidth="1"/>
+    <col min="11" max="11" width="14.25" style="1" customWidth="1"/>
+    <col min="12" max="12" width="34.875" style="1" customWidth="1"/>
+    <col min="13" max="13" width="18.625" style="1" customWidth="1"/>
+    <col min="14" max="14" width="24.625" style="1" customWidth="1"/>
+    <col min="15" max="15" width="22.375" style="1" customWidth="1"/>
     <col min="16" max="16" width="9" style="1"/>
-    <col min="17" max="17" width="32.109375" style="1" customWidth="1"/>
-    <col min="18" max="18" width="16.21875" style="1" customWidth="1"/>
+    <col min="17" max="17" width="32.125" style="1" customWidth="1"/>
+    <col min="18" max="18" width="16.25" style="1" customWidth="1"/>
     <col min="19" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -591,14 +527,14 @@
       <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="3" t="s">
         <v>9</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>10</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="L1" s="1" t="s">
         <v>11</v>
@@ -607,332 +543,39 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:13" s="2" customFormat="1" ht="27" customHeight="1">
+    <row r="2" spans="1:13" s="2" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="E2" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="F2" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="G2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="J2" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="K2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="L2" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="M2" s="2" t="s">
         <v>17</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="L2" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="M2" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" ht="72">
-      <c r="A3" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="K3" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="L3" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="M3" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" ht="72">
-      <c r="A4" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="I4" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="J4" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="K4" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="L4" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="M4" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" ht="72">
-      <c r="A5" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="I5" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="J5" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="K5" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="L5" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="M5" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" ht="72">
-      <c r="A6" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="I6" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="J6" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="K6" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="L6" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="M6" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" ht="72">
-      <c r="A7" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="H7" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="I7" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="J7" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="K7" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="L7" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="M7" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" ht="72">
-      <c r="A8" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="H8" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="I8" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="J8" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="K8" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="L8" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="M8" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" ht="72">
-      <c r="A9" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="G9" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="H9" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="I9" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="J9" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="K9" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="L9" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="M9" s="2" t="s">
-        <v>20</v>
       </c>
     </row>
   </sheetData>
